--- a/NARESHO MARIUS.xlsx
+++ b/NARESHO MARIUS.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760" firstSheet="3" activeTab="7"/>
   </bookViews>
@@ -25,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1031,7 +1026,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1851,7 +1846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1886,7 +1881,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -23813,8 +23808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25000,10 +24995,12 @@
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="I39" s="97"/>
+      <c r="I39" s="97">
+        <v>300</v>
+      </c>
       <c r="J39" s="97">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="K39" s="97"/>
       <c r="L39" s="97"/>
@@ -26028,11 +26025,11 @@
       </c>
       <c r="I71" s="97">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>80300</v>
       </c>
       <c r="J71" s="97">
         <f>SUM(J6:J70)</f>
-        <v>405780</v>
+        <v>405480</v>
       </c>
       <c r="K71" s="97">
         <f t="shared" si="2"/>
@@ -26108,7 +26105,7 @@
       <c r="G74" s="109"/>
       <c r="H74" s="125">
         <f>I71</f>
-        <v>80000</v>
+        <v>80300</v>
       </c>
       <c r="I74" s="109"/>
       <c r="J74" s="109"/>
@@ -26534,7 +26531,7 @@
       <c r="G96" s="115"/>
       <c r="H96" s="139">
         <f>H74+H75+H77+H79+H80</f>
-        <v>167518</v>
+        <v>167818</v>
       </c>
       <c r="I96" s="139">
         <f>SUM(I83:I95)</f>
@@ -26542,7 +26539,7 @@
       </c>
       <c r="J96" s="139">
         <f>H96-I96</f>
-        <v>61288</v>
+        <v>61588</v>
       </c>
       <c r="K96" s="139"/>
       <c r="L96" s="140"/>
